--- a/data/pca/factorExposure/factorExposure_2009-03-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-03-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01737506238817803</v>
+        <v>-0.01688719326894175</v>
       </c>
       <c r="C2">
-        <v>0.002159794892716849</v>
+        <v>0.001588498124803586</v>
       </c>
       <c r="D2">
-        <v>0.008176014093633764</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.008846521197520588</v>
+      </c>
+      <c r="E2">
+        <v>0.01787499301239153</v>
+      </c>
+      <c r="F2">
+        <v>-0.007622826122212351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.08407463565798377</v>
+        <v>-0.08741793121323055</v>
       </c>
       <c r="C4">
-        <v>0.0195050738666316</v>
+        <v>0.01562502346904757</v>
       </c>
       <c r="D4">
-        <v>0.08573225900045933</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08806347647518215</v>
+      </c>
+      <c r="E4">
+        <v>-0.05063047560083246</v>
+      </c>
+      <c r="F4">
+        <v>0.01504306833679776</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.0007775030807671292</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>8.685740942315845e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.001021166304658842</v>
+      </c>
+      <c r="E5">
+        <v>0.000363417029536974</v>
+      </c>
+      <c r="F5">
+        <v>-0.002121428936660296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1609434615899015</v>
+        <v>-0.166605843197752</v>
       </c>
       <c r="C6">
-        <v>0.03710543623058191</v>
+        <v>0.03494967545508568</v>
       </c>
       <c r="D6">
-        <v>-0.02036227811508623</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01138109720132295</v>
+      </c>
+      <c r="E6">
+        <v>-0.06256872432083062</v>
+      </c>
+      <c r="F6">
+        <v>0.00836164662531046</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.0551846383977252</v>
+        <v>-0.0598772562223952</v>
       </c>
       <c r="C7">
-        <v>0.001358947209851341</v>
+        <v>-0.00137138559021466</v>
       </c>
       <c r="D7">
-        <v>0.05357745324342057</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05731757067928614</v>
+      </c>
+      <c r="E7">
+        <v>-0.032663021341863</v>
+      </c>
+      <c r="F7">
+        <v>0.05589072512167096</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05759859833744369</v>
+        <v>-0.05462303582089451</v>
       </c>
       <c r="C8">
-        <v>-0.009777955364237726</v>
+        <v>-0.01127249545824217</v>
       </c>
       <c r="D8">
-        <v>0.03192714454357008</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03351168130140899</v>
+      </c>
+      <c r="E8">
+        <v>0.02357016966756868</v>
+      </c>
+      <c r="F8">
+        <v>-0.0219255996041787</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.06485878317511025</v>
+        <v>-0.06813941657160544</v>
       </c>
       <c r="C9">
-        <v>0.01506395392846301</v>
+        <v>0.01129993246110431</v>
       </c>
       <c r="D9">
-        <v>0.08941183298474441</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.09157440505685603</v>
+      </c>
+      <c r="E9">
+        <v>-0.06611823949629292</v>
+      </c>
+      <c r="F9">
+        <v>0.02381676748763917</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.09495345465912164</v>
+        <v>-0.09159122231533845</v>
       </c>
       <c r="C10">
-        <v>0.02345707341979189</v>
+        <v>0.02474007390175966</v>
       </c>
       <c r="D10">
-        <v>-0.1632519174240405</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.153654858678854</v>
+      </c>
+      <c r="E10">
+        <v>0.08594355066530059</v>
+      </c>
+      <c r="F10">
+        <v>-0.01276038508275893</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.08620166232945174</v>
+        <v>-0.08395666451212183</v>
       </c>
       <c r="C11">
-        <v>0.01690369817080539</v>
+        <v>0.01230489172973376</v>
       </c>
       <c r="D11">
-        <v>0.1353392859751072</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.13522729181371</v>
+      </c>
+      <c r="E11">
+        <v>-0.03648057186067397</v>
+      </c>
+      <c r="F11">
+        <v>-0.00760242437765386</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09125860698408909</v>
+        <v>-0.08689600019708078</v>
       </c>
       <c r="C12">
-        <v>0.01480949926206345</v>
+        <v>0.009702711897119746</v>
       </c>
       <c r="D12">
-        <v>0.1425427165856784</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1496124128735619</v>
+      </c>
+      <c r="E12">
+        <v>-0.032949092200243</v>
+      </c>
+      <c r="F12">
+        <v>0.004848654453420971</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04316232827441136</v>
+        <v>-0.04387389250757125</v>
       </c>
       <c r="C13">
-        <v>0.007641570162725212</v>
+        <v>0.004072348348523496</v>
       </c>
       <c r="D13">
-        <v>0.05197401510388029</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05922695765012122</v>
+      </c>
+      <c r="E13">
+        <v>-0.003665009935181533</v>
+      </c>
+      <c r="F13">
+        <v>0.01992319012498728</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01932334680853688</v>
+        <v>-0.02211429441302404</v>
       </c>
       <c r="C14">
-        <v>0.0147917302755151</v>
+        <v>0.0139078662525809</v>
       </c>
       <c r="D14">
-        <v>0.04139949611609896</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.0417303080185158</v>
+      </c>
+      <c r="E14">
+        <v>-0.03109719232256849</v>
+      </c>
+      <c r="F14">
+        <v>0.003111445031971929</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03295046789206455</v>
+        <v>-0.03408603574878768</v>
       </c>
       <c r="C15">
-        <v>0.008158678077278519</v>
+        <v>0.006663894014143195</v>
       </c>
       <c r="D15">
-        <v>0.05571011926283886</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.05404875815081197</v>
+      </c>
+      <c r="E15">
+        <v>-0.02582098479197964</v>
+      </c>
+      <c r="F15">
+        <v>0.01555231166267811</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.06688626511822031</v>
+        <v>-0.06649829737668776</v>
       </c>
       <c r="C16">
-        <v>0.005423585994185994</v>
+        <v>0.00102701395222031</v>
       </c>
       <c r="D16">
-        <v>0.1363356215686369</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1427953555329839</v>
+      </c>
+      <c r="E16">
+        <v>-0.04487591952111024</v>
+      </c>
+      <c r="F16">
+        <v>-0.01365433894715982</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.002592553933288147</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0011458880261841</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.002608403245073603</v>
+      </c>
+      <c r="E17">
+        <v>-0.0001970987902141267</v>
+      </c>
+      <c r="F17">
+        <v>-0.007268987730328009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.03016973252826453</v>
+        <v>-0.04667188828444434</v>
       </c>
       <c r="C18">
-        <v>-0.0003264528556390352</v>
+        <v>0.000116645419211899</v>
       </c>
       <c r="D18">
-        <v>0.02767681089075396</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.02527231334227553</v>
+      </c>
+      <c r="E18">
+        <v>0.01943042206136647</v>
+      </c>
+      <c r="F18">
+        <v>0.0005558434212181296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06195052538453807</v>
+        <v>-0.06139076980595561</v>
       </c>
       <c r="C20">
-        <v>0.004874129514463249</v>
+        <v>0.002271508978256725</v>
       </c>
       <c r="D20">
-        <v>0.09166409654716325</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.09236767113336243</v>
+      </c>
+      <c r="E20">
+        <v>-0.06040460376314565</v>
+      </c>
+      <c r="F20">
+        <v>-0.007507221293260289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03954135440322191</v>
+        <v>-0.04194390915502567</v>
       </c>
       <c r="C21">
-        <v>0.01000822755798978</v>
+        <v>0.007569896726786505</v>
       </c>
       <c r="D21">
-        <v>0.04616266756692211</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.0448952390824925</v>
+      </c>
+      <c r="E21">
+        <v>0.01597310987865081</v>
+      </c>
+      <c r="F21">
+        <v>0.006038734117404757</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.0455441658851384</v>
+        <v>-0.0445992279552115</v>
       </c>
       <c r="C22">
-        <v>0.004457945218031548</v>
+        <v>0.002590158121502466</v>
       </c>
       <c r="D22">
-        <v>0.007893015028597997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.01683871135263606</v>
+      </c>
+      <c r="E22">
+        <v>0.0397397628592685</v>
+      </c>
+      <c r="F22">
+        <v>-0.1257165457560182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04555301378361818</v>
+        <v>-0.04460676378550701</v>
       </c>
       <c r="C23">
-        <v>0.004460352875686969</v>
+        <v>0.002592387120827579</v>
       </c>
       <c r="D23">
-        <v>0.007884860508807774</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.01683245198578441</v>
+      </c>
+      <c r="E23">
+        <v>0.03976183093266741</v>
+      </c>
+      <c r="F23">
+        <v>-0.1257565037571297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07503345631410198</v>
+        <v>-0.07338665050022729</v>
       </c>
       <c r="C24">
-        <v>0.006556941429287305</v>
+        <v>0.00231297018712785</v>
       </c>
       <c r="D24">
-        <v>0.1377626075223699</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1364097855194447</v>
+      </c>
+      <c r="E24">
+        <v>-0.03985552873671085</v>
+      </c>
+      <c r="F24">
+        <v>0.00508899895136666</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08047807779641755</v>
+        <v>-0.07828184315759679</v>
       </c>
       <c r="C25">
-        <v>0.009227482606274472</v>
+        <v>0.005267465550758636</v>
       </c>
       <c r="D25">
-        <v>0.1267379276890019</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1254131919598555</v>
+      </c>
+      <c r="E25">
+        <v>-0.02530463641289433</v>
+      </c>
+      <c r="F25">
+        <v>0.0208846227427453</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05755395318136379</v>
+        <v>-0.062338222117142</v>
       </c>
       <c r="C26">
-        <v>0.01892717735116745</v>
+        <v>0.01636710210945956</v>
       </c>
       <c r="D26">
-        <v>0.06512363202756183</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.06568413940123949</v>
+      </c>
+      <c r="E26">
+        <v>-0.004321815231154333</v>
+      </c>
+      <c r="F26">
+        <v>-0.007935658113784529</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1533361010731649</v>
+        <v>-0.157762470990676</v>
       </c>
       <c r="C28">
-        <v>0.02830020336537333</v>
+        <v>0.03125970664979989</v>
       </c>
       <c r="D28">
-        <v>-0.2495928847408879</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2464646168350274</v>
+      </c>
+      <c r="E28">
+        <v>0.01657307125843929</v>
+      </c>
+      <c r="F28">
+        <v>0.04772822236926703</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02558173081027862</v>
+        <v>-0.02768088001067211</v>
       </c>
       <c r="C29">
-        <v>0.009702280404754847</v>
+        <v>0.009238365382199083</v>
       </c>
       <c r="D29">
-        <v>0.03954935245590079</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.0384290565404075</v>
+      </c>
+      <c r="E29">
+        <v>0.002691255314283833</v>
+      </c>
+      <c r="F29">
+        <v>-0.02108077175640933</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05039284804922652</v>
+        <v>-0.04985889096748307</v>
       </c>
       <c r="C30">
-        <v>0.005670013336435606</v>
+        <v>0.002341198967984189</v>
       </c>
       <c r="D30">
-        <v>0.07820469056924954</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08200062430419172</v>
+      </c>
+      <c r="E30">
+        <v>-0.08100222062472311</v>
+      </c>
+      <c r="F30">
+        <v>0.07206262109568516</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05085534671949125</v>
+        <v>-0.05159816817479305</v>
       </c>
       <c r="C31">
-        <v>0.0189756307072001</v>
+        <v>0.01693768445076652</v>
       </c>
       <c r="D31">
-        <v>0.03071085089394643</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03391240247528131</v>
+      </c>
+      <c r="E31">
+        <v>-0.01226682732247695</v>
+      </c>
+      <c r="F31">
+        <v>-0.03318162750022446</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04421466091742535</v>
+        <v>-0.04969589721154664</v>
       </c>
       <c r="C32">
-        <v>0.001349618280753652</v>
+        <v>-0.001254219038510304</v>
       </c>
       <c r="D32">
-        <v>0.0381746762046874</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03997852688746587</v>
+      </c>
+      <c r="E32">
+        <v>-0.01483693275141564</v>
+      </c>
+      <c r="F32">
+        <v>-0.01924608678711236</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.08524051373295001</v>
+        <v>-0.08712895348349037</v>
       </c>
       <c r="C33">
-        <v>0.01323562945966</v>
+        <v>0.008390690219243428</v>
       </c>
       <c r="D33">
-        <v>0.1084940168185234</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1159929142607995</v>
+      </c>
+      <c r="E33">
+        <v>-0.04855800655189063</v>
+      </c>
+      <c r="F33">
+        <v>-0.009697155405389856</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06304275903910039</v>
+        <v>-0.06318693283682082</v>
       </c>
       <c r="C34">
-        <v>0.01504752970692505</v>
+        <v>0.01055613021433393</v>
       </c>
       <c r="D34">
-        <v>0.1148223747332881</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1222967449724404</v>
+      </c>
+      <c r="E34">
+        <v>-0.03641538912447565</v>
+      </c>
+      <c r="F34">
+        <v>0.02814127512111568</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02664764028321324</v>
+        <v>-0.02798532633932069</v>
       </c>
       <c r="C35">
-        <v>0.004973516516618092</v>
+        <v>0.004393936252646862</v>
       </c>
       <c r="D35">
-        <v>0.01208359108740769</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01472895534326657</v>
+      </c>
+      <c r="E35">
+        <v>-0.01191726897410853</v>
+      </c>
+      <c r="F35">
+        <v>-0.01697990084213806</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02254000745612823</v>
+        <v>-0.02707704979671803</v>
       </c>
       <c r="C36">
-        <v>0.008478300407145516</v>
+        <v>0.007723033404496878</v>
       </c>
       <c r="D36">
-        <v>0.04361736107599526</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.04733999362636235</v>
+      </c>
+      <c r="E36">
+        <v>-0.03877098584903702</v>
+      </c>
+      <c r="F36">
+        <v>-0.0125226838066069</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.003321395422596482</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0008613554960507919</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.003457186253885944</v>
+      </c>
+      <c r="E37">
+        <v>0.001535065257333178</v>
+      </c>
+      <c r="F37">
+        <v>-4.873031803068781e-05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.09921185665566622</v>
+        <v>-0.09119159410230955</v>
       </c>
       <c r="C39">
-        <v>0.02108178693407782</v>
+        <v>0.01562534803260196</v>
       </c>
       <c r="D39">
-        <v>0.1730196589766373</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1661044526051308</v>
+      </c>
+      <c r="E39">
+        <v>-0.02953337467016088</v>
+      </c>
+      <c r="F39">
+        <v>-0.009333930833583118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.04425506884634545</v>
+        <v>-0.04953888881762773</v>
       </c>
       <c r="C40">
-        <v>0.01205287414877962</v>
+        <v>0.01061387513017871</v>
       </c>
       <c r="D40">
-        <v>0.04230570439976541</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.04578007343476788</v>
+      </c>
+      <c r="E40">
+        <v>0.02089542353973033</v>
+      </c>
+      <c r="F40">
+        <v>0.003339026460263194</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02682333772356561</v>
+        <v>-0.02883472274132273</v>
       </c>
       <c r="C41">
-        <v>0.008418524376640249</v>
+        <v>0.007923974943884275</v>
       </c>
       <c r="D41">
-        <v>0.01811426585517774</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01875120782537464</v>
+      </c>
+      <c r="E41">
+        <v>0.008630594048235719</v>
+      </c>
+      <c r="F41">
+        <v>-0.004876963298008594</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1531,176 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04083650920754076</v>
+        <v>-0.03994208478350873</v>
       </c>
       <c r="C43">
-        <v>0.009025103675185695</v>
+        <v>0.008143498388879931</v>
       </c>
       <c r="D43">
-        <v>0.03184403552663562</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02985572702562747</v>
+      </c>
+      <c r="E43">
+        <v>0.006272848255409124</v>
+      </c>
+      <c r="F43">
+        <v>-0.02518617295249608</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.06025335760829261</v>
+        <v>-0.0683902472034667</v>
       </c>
       <c r="C44">
-        <v>0.02195450095657859</v>
+        <v>0.01890988769746682</v>
       </c>
       <c r="D44">
-        <v>0.08069849294606112</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.08821968172691343</v>
+      </c>
+      <c r="E44">
+        <v>-0.2214225994640136</v>
+      </c>
+      <c r="F44">
+        <v>0.07914062011792247</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0001859507938373637</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>3.883914972426464e-05</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>-1.699590090056446e-05</v>
+      </c>
+      <c r="E45">
+        <v>0.0004020490978046121</v>
+      </c>
+      <c r="F45">
+        <v>0.0004140390288484047</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02360034529131529</v>
+        <v>-0.0258916704965382</v>
       </c>
       <c r="C46">
-        <v>0.004805559731740594</v>
+        <v>0.004130368855774971</v>
       </c>
       <c r="D46">
-        <v>0.02556599947730743</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.02512240545250317</v>
+      </c>
+      <c r="E46">
+        <v>0.001582476723930866</v>
+      </c>
+      <c r="F46">
+        <v>-0.03197339795136173</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05414175482481596</v>
+        <v>-0.05300994814843363</v>
       </c>
       <c r="C47">
-        <v>0.007362294705994357</v>
+        <v>0.005625484387425423</v>
       </c>
       <c r="D47">
-        <v>0.01886839910528574</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01996876334891305</v>
+      </c>
+      <c r="E47">
+        <v>0.01409286852941617</v>
+      </c>
+      <c r="F47">
+        <v>-0.05483211516047332</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04913689897221942</v>
+        <v>-0.05293586806589843</v>
       </c>
       <c r="C48">
-        <v>0.00632742030240472</v>
+        <v>0.004105817804350638</v>
       </c>
       <c r="D48">
-        <v>0.06514533739558179</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.06349871422459979</v>
+      </c>
+      <c r="E48">
+        <v>-0.006519846990756912</v>
+      </c>
+      <c r="F48">
+        <v>0.02169285937263494</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.1947922827978574</v>
+        <v>-0.1969460088938428</v>
       </c>
       <c r="C49">
-        <v>0.02846323991377047</v>
+        <v>0.02447377459844668</v>
       </c>
       <c r="D49">
-        <v>-0.01027981829148367</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.005438599422277089</v>
+      </c>
+      <c r="E49">
+        <v>-0.04296120719211866</v>
+      </c>
+      <c r="F49">
+        <v>0.03936779651649751</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04939988062486198</v>
+        <v>-0.05224725760974912</v>
       </c>
       <c r="C50">
-        <v>0.0145270348427223</v>
+        <v>0.01301456758066797</v>
       </c>
       <c r="D50">
-        <v>0.0316956981377636</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.03353931183064406</v>
+      </c>
+      <c r="E50">
+        <v>-0.02347043896796887</v>
+      </c>
+      <c r="F50">
+        <v>-0.01902271933127865</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1512575527012971</v>
+        <v>-0.144720631327123</v>
       </c>
       <c r="C52">
-        <v>0.02574807043217976</v>
+        <v>0.02174870015324339</v>
       </c>
       <c r="D52">
-        <v>0.048682600649402</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04920200823803385</v>
+      </c>
+      <c r="E52">
+        <v>-0.05793186183976479</v>
+      </c>
+      <c r="F52">
+        <v>-0.01594000868061432</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1749078455586036</v>
+        <v>-0.1672284609319138</v>
       </c>
       <c r="C53">
-        <v>0.02885689378840475</v>
+        <v>0.02583192843819195</v>
       </c>
       <c r="D53">
-        <v>0.007604111039986731</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.009290392059915704</v>
+      </c>
+      <c r="E53">
+        <v>-0.1103549549721791</v>
+      </c>
+      <c r="F53">
+        <v>-0.01223899435061058</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.0141835946048485</v>
+        <v>-0.01743471570701192</v>
       </c>
       <c r="C54">
-        <v>0.01179674815657162</v>
+        <v>0.01115416284218656</v>
       </c>
       <c r="D54">
-        <v>0.03581530442992259</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03363312459740191</v>
+      </c>
+      <c r="E54">
+        <v>-0.008132873178581548</v>
+      </c>
+      <c r="F54">
+        <v>-0.01416344635122513</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1201126140028766</v>
+        <v>-0.1175172809116053</v>
       </c>
       <c r="C55">
-        <v>0.02511424236263349</v>
+        <v>0.02259957570452875</v>
       </c>
       <c r="D55">
-        <v>0.01204144757536279</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01843484901495322</v>
+      </c>
+      <c r="E55">
+        <v>-0.0678639650037151</v>
+      </c>
+      <c r="F55">
+        <v>-0.04161847718947243</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1808605075013234</v>
+        <v>-0.1749553382207671</v>
       </c>
       <c r="C56">
-        <v>0.02703801013600221</v>
+        <v>0.02422400869833395</v>
       </c>
       <c r="D56">
-        <v>0.001782454693511334</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.003574821061147572</v>
+      </c>
+      <c r="E56">
+        <v>-0.07409679688042929</v>
+      </c>
+      <c r="F56">
+        <v>-0.03402377033586142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.0454313636491714</v>
+        <v>-0.04469492205646554</v>
       </c>
       <c r="C58">
-        <v>0.00420220327174645</v>
+        <v>0.00040488277522372</v>
       </c>
       <c r="D58">
-        <v>0.08674805424238841</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.0934133145192346</v>
+      </c>
+      <c r="E58">
+        <v>0.01768755428056856</v>
+      </c>
+      <c r="F58">
+        <v>-0.03985366661591005</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.171778808945271</v>
+        <v>-0.17639166213705</v>
       </c>
       <c r="C59">
-        <v>0.02772578383758009</v>
+        <v>0.03017366798531563</v>
       </c>
       <c r="D59">
-        <v>-0.2171699104989437</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2149090468197419</v>
+      </c>
+      <c r="E59">
+        <v>0.07720157666858499</v>
+      </c>
+      <c r="F59">
+        <v>-0.01023364069102656</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2238166894106142</v>
+        <v>-0.2187104677092871</v>
       </c>
       <c r="C60">
-        <v>0.008343559597551722</v>
+        <v>0.003829150006753683</v>
       </c>
       <c r="D60">
-        <v>0.01804006784982343</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01945089012834153</v>
+      </c>
+      <c r="E60">
+        <v>0.01639724471539454</v>
+      </c>
+      <c r="F60">
+        <v>-0.003362479176873531</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.0726047765506183</v>
+        <v>-0.06891997183483524</v>
       </c>
       <c r="C61">
-        <v>0.01523257476087334</v>
+        <v>0.01083014770822685</v>
       </c>
       <c r="D61">
-        <v>0.1254156157369206</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1245344924635976</v>
+      </c>
+      <c r="E61">
+        <v>-0.01631777344341285</v>
+      </c>
+      <c r="F61">
+        <v>-0.01562097963183741</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1717430125993405</v>
+        <v>-0.1673499823519141</v>
       </c>
       <c r="C62">
-        <v>0.02974554430652932</v>
+        <v>0.02659443393570041</v>
       </c>
       <c r="D62">
-        <v>0.008612435314883957</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.01207026247770438</v>
+      </c>
+      <c r="E62">
+        <v>-0.06573066498801272</v>
+      </c>
+      <c r="F62">
+        <v>-0.04105287529579164</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04118849531236171</v>
+        <v>-0.04681978865662076</v>
       </c>
       <c r="C63">
-        <v>0.005502198429044695</v>
+        <v>0.003333014431063938</v>
       </c>
       <c r="D63">
-        <v>0.06980739415575286</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07436782738303473</v>
+      </c>
+      <c r="E63">
+        <v>-0.01285487894247632</v>
+      </c>
+      <c r="F63">
+        <v>-0.02051873021370798</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1142972900063207</v>
+        <v>-0.1115155488575802</v>
       </c>
       <c r="C64">
-        <v>0.01957969060470817</v>
+        <v>0.0158501057714014</v>
       </c>
       <c r="D64">
-        <v>0.05318794382538772</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05540965695403427</v>
+      </c>
+      <c r="E64">
+        <v>-0.03420451848361716</v>
+      </c>
+      <c r="F64">
+        <v>-0.000196619489345814</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1502366091040646</v>
+        <v>-0.1559321780079339</v>
       </c>
       <c r="C65">
-        <v>0.04303892131702664</v>
+        <v>0.04150116343309609</v>
       </c>
       <c r="D65">
-        <v>-0.04878450292166014</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.03757185904720434</v>
+      </c>
+      <c r="E65">
+        <v>-0.07115013494888471</v>
+      </c>
+      <c r="F65">
+        <v>-0.004900908202073693</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.120209757041775</v>
+        <v>-0.1101500829264534</v>
       </c>
       <c r="C66">
-        <v>0.01969587573481689</v>
+        <v>0.01373265361885239</v>
       </c>
       <c r="D66">
-        <v>0.1533547235666535</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1512384149165714</v>
+      </c>
+      <c r="E66">
+        <v>-0.02966175670288933</v>
+      </c>
+      <c r="F66">
+        <v>-0.007573208229985986</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05938696867624842</v>
+        <v>-0.05226485301278291</v>
       </c>
       <c r="C67">
-        <v>0.006233299630194692</v>
+        <v>0.004009071329978668</v>
       </c>
       <c r="D67">
-        <v>0.05861264614345161</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05929411640826289</v>
+      </c>
+      <c r="E67">
+        <v>0.0517644181924899</v>
+      </c>
+      <c r="F67">
+        <v>-0.07611421337258577</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1227738312721223</v>
+        <v>-0.1286559716071709</v>
       </c>
       <c r="C68">
-        <v>0.03627568275860203</v>
+        <v>0.04050372097211019</v>
       </c>
       <c r="D68">
-        <v>-0.2587909701250772</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2560291527953316</v>
+      </c>
+      <c r="E68">
+        <v>0.03022557000934503</v>
+      </c>
+      <c r="F68">
+        <v>0.07690581498185575</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.0393091088828319</v>
+        <v>-0.0388514391575792</v>
       </c>
       <c r="C69">
-        <v>0.003395858491307088</v>
+        <v>0.002382338642462394</v>
       </c>
       <c r="D69">
-        <v>0.01238746881063931</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01229657441466847</v>
+      </c>
+      <c r="E69">
+        <v>-0.01454838609330143</v>
+      </c>
+      <c r="F69">
+        <v>-0.05198236274374771</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06938659617804799</v>
+        <v>-0.07081671589777412</v>
       </c>
       <c r="C70">
-        <v>-0.02255595050497164</v>
+        <v>-0.02395551519414067</v>
       </c>
       <c r="D70">
-        <v>0.04128663185674322</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.03885181984715146</v>
+      </c>
+      <c r="E70">
+        <v>0.3325085639744315</v>
+      </c>
+      <c r="F70">
+        <v>-0.1821268925400676</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1433020042850453</v>
+        <v>-0.1499864370532722</v>
       </c>
       <c r="C71">
-        <v>0.04215703727615105</v>
+        <v>0.04612697076245186</v>
       </c>
       <c r="D71">
-        <v>-0.2718096888228586</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2649499806534363</v>
+      </c>
+      <c r="E71">
+        <v>0.03698972989207331</v>
+      </c>
+      <c r="F71">
+        <v>0.08688192753104906</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1390469482970389</v>
+        <v>-0.1453483186449222</v>
       </c>
       <c r="C72">
-        <v>0.03351842549118695</v>
+        <v>0.03213704860217748</v>
       </c>
       <c r="D72">
-        <v>0.01509459893615712</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.009981969246510531</v>
+      </c>
+      <c r="E72">
+        <v>-0.06401707848977974</v>
+      </c>
+      <c r="F72">
+        <v>-0.03066551584395465</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.1947567376120607</v>
+        <v>-0.1994907732367964</v>
       </c>
       <c r="C73">
-        <v>0.02166701666566507</v>
+        <v>0.01647353605037267</v>
       </c>
       <c r="D73">
-        <v>0.01170685735232181</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01905274361459176</v>
+      </c>
+      <c r="E73">
+        <v>-0.05554977814510647</v>
+      </c>
+      <c r="F73">
+        <v>-0.05297980930439126</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.08865309206425438</v>
+        <v>-0.08855339546431219</v>
       </c>
       <c r="C74">
-        <v>0.01669004990263394</v>
+        <v>0.01462346109159865</v>
       </c>
       <c r="D74">
-        <v>0.01873621382735664</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.02296475761432885</v>
+      </c>
+      <c r="E74">
+        <v>-0.07847125418409083</v>
+      </c>
+      <c r="F74">
+        <v>-0.01717073370600373</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1285761615057738</v>
+        <v>-0.1211257417989246</v>
       </c>
       <c r="C75">
-        <v>0.03488897369397152</v>
+        <v>0.03145423247113081</v>
       </c>
       <c r="D75">
-        <v>0.03359794229278139</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03620755308379699</v>
+      </c>
+      <c r="E75">
+        <v>-0.06166471704824736</v>
+      </c>
+      <c r="F75">
+        <v>-0.06307725737224959</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.077033764450866</v>
+        <v>-0.09099951057336191</v>
       </c>
       <c r="C77">
-        <v>0.01454670021718812</v>
+        <v>0.0112131403320022</v>
       </c>
       <c r="D77">
-        <v>0.121451463656536</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1199217796998855</v>
+      </c>
+      <c r="E77">
+        <v>-0.05088668837871971</v>
+      </c>
+      <c r="F77">
+        <v>0.018165770226538</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09596724597602971</v>
+        <v>-0.09812388585129597</v>
       </c>
       <c r="C78">
-        <v>0.04311042378142278</v>
+        <v>0.04018895838084268</v>
       </c>
       <c r="D78">
-        <v>0.139830091475057</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.130878791562254</v>
+      </c>
+      <c r="E78">
+        <v>-0.04722757807181206</v>
+      </c>
+      <c r="F78">
+        <v>0.02256644821508468</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1701211055544522</v>
+        <v>-0.1653704621233209</v>
       </c>
       <c r="C79">
-        <v>0.03311841440821083</v>
+        <v>0.02946935128367336</v>
       </c>
       <c r="D79">
-        <v>0.02416817505458445</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02650248026701294</v>
+      </c>
+      <c r="E79">
+        <v>-0.03808721344979888</v>
+      </c>
+      <c r="F79">
+        <v>-0.03849160172869417</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07881486581513594</v>
+        <v>-0.07694208789117871</v>
       </c>
       <c r="C80">
-        <v>0.003929666022583628</v>
+        <v>0.001575958369968843</v>
       </c>
       <c r="D80">
-        <v>0.0506013194562968</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05265708631351246</v>
+      </c>
+      <c r="E80">
+        <v>0.0166519348172183</v>
+      </c>
+      <c r="F80">
+        <v>-0.04687171233474546</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1167547290585736</v>
+        <v>-0.1108134288417805</v>
       </c>
       <c r="C81">
-        <v>0.03661025238497861</v>
+        <v>0.03459919301722679</v>
       </c>
       <c r="D81">
-        <v>0.009260460530731759</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01405654720080451</v>
+      </c>
+      <c r="E81">
+        <v>-0.0500393415372126</v>
+      </c>
+      <c r="F81">
+        <v>-0.06402020483379377</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1620985457229598</v>
+        <v>-0.1602845203447467</v>
       </c>
       <c r="C82">
-        <v>0.03267822790954913</v>
+        <v>0.0297022831623274</v>
       </c>
       <c r="D82">
-        <v>0.003849121325610224</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.004533353825576929</v>
+      </c>
+      <c r="E82">
+        <v>-0.1037892447377097</v>
+      </c>
+      <c r="F82">
+        <v>-0.005470636112474658</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.05704465857250852</v>
+        <v>-0.05246870187554186</v>
       </c>
       <c r="C83">
-        <v>0.006340624632046255</v>
+        <v>0.004171365628767872</v>
       </c>
       <c r="D83">
-        <v>0.04841989039067048</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04626436702824437</v>
+      </c>
+      <c r="E83">
+        <v>0.02470070350922081</v>
+      </c>
+      <c r="F83">
+        <v>-0.00695101207849352</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05355086810437403</v>
+        <v>-0.05046168168060145</v>
       </c>
       <c r="C84">
-        <v>0.01302329694473847</v>
+        <v>0.01062638273052971</v>
       </c>
       <c r="D84">
-        <v>0.07609074433495008</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.07514480891846345</v>
+      </c>
+      <c r="E84">
+        <v>-0.009272202512371036</v>
+      </c>
+      <c r="F84">
+        <v>-0.00633436764484484</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.140093795712952</v>
+        <v>-0.1345742832968103</v>
       </c>
       <c r="C85">
-        <v>0.03613368472796859</v>
+        <v>0.03322966187085216</v>
       </c>
       <c r="D85">
-        <v>0.01563985358449379</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01778021046806438</v>
+      </c>
+      <c r="E85">
+        <v>-0.080387481128985</v>
+      </c>
+      <c r="F85">
+        <v>-0.01759255662002464</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.0843773174437232</v>
+        <v>-0.08292076430701929</v>
       </c>
       <c r="C86">
-        <v>-0.004278968191767319</v>
+        <v>-0.006386974005442233</v>
       </c>
       <c r="D86">
-        <v>0.04369582996796118</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.06948834469366592</v>
+      </c>
+      <c r="E86">
+        <v>0.5567362846223421</v>
+      </c>
+      <c r="F86">
+        <v>-0.5856985569895886</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.08677050293624762</v>
+        <v>-0.08739793587930862</v>
       </c>
       <c r="C87">
-        <v>0.02705209082973146</v>
+        <v>0.02296708416914994</v>
       </c>
       <c r="D87">
-        <v>0.08028687404716241</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08311798364669701</v>
+      </c>
+      <c r="E87">
+        <v>-0.009615869067140312</v>
+      </c>
+      <c r="F87">
+        <v>0.1077176351610805</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06228187960150099</v>
+        <v>-0.06106328439860419</v>
       </c>
       <c r="C88">
-        <v>0.00673954476651143</v>
+        <v>0.004417485015108359</v>
       </c>
       <c r="D88">
-        <v>0.06570555061993349</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.06205644556098979</v>
+      </c>
+      <c r="E88">
+        <v>-0.01678713365311274</v>
+      </c>
+      <c r="F88">
+        <v>-0.01214985955255292</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1310376928976976</v>
+        <v>-0.1359867889260622</v>
       </c>
       <c r="C89">
-        <v>0.01622318393418072</v>
+        <v>0.02039154420600063</v>
       </c>
       <c r="D89">
-        <v>-0.2332797762247933</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2372707177650929</v>
+      </c>
+      <c r="E89">
+        <v>0.04232726902577003</v>
+      </c>
+      <c r="F89">
+        <v>0.08363726264450647</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1552171401905683</v>
+        <v>-0.1654632950120539</v>
       </c>
       <c r="C90">
-        <v>0.03876258753679546</v>
+        <v>0.04338377984405489</v>
       </c>
       <c r="D90">
-        <v>-0.2584313822496018</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2604164807080912</v>
+      </c>
+      <c r="E90">
+        <v>0.06554697073377812</v>
+      </c>
+      <c r="F90">
+        <v>0.1187381215690935</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1261075246397678</v>
+        <v>-0.1212025907631817</v>
       </c>
       <c r="C91">
-        <v>0.02681854529363136</v>
+        <v>0.02505451579553151</v>
       </c>
       <c r="D91">
-        <v>-0.01348176654345068</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01031058566634608</v>
+      </c>
+      <c r="E91">
+        <v>-0.0375921603314255</v>
+      </c>
+      <c r="F91">
+        <v>-0.09514144663826658</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1544695208601482</v>
+        <v>-0.157601926144489</v>
       </c>
       <c r="C92">
-        <v>0.02957408518419059</v>
+        <v>0.03377673839855724</v>
       </c>
       <c r="D92">
-        <v>-0.2871063068944919</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2908278124201977</v>
+      </c>
+      <c r="E92">
+        <v>0.04941179883680486</v>
+      </c>
+      <c r="F92">
+        <v>0.07976906351316156</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1585075161283779</v>
+        <v>-0.167276782617558</v>
       </c>
       <c r="C93">
-        <v>0.03439856702145564</v>
+        <v>0.03788591203573266</v>
       </c>
       <c r="D93">
-        <v>-0.2507914950712976</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2535162678731478</v>
+      </c>
+      <c r="E93">
+        <v>0.02269390272735737</v>
+      </c>
+      <c r="F93">
+        <v>0.05739590511794686</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1269005003508162</v>
+        <v>-0.1198278477159891</v>
       </c>
       <c r="C94">
-        <v>0.03049279220583198</v>
+        <v>0.02675332664488639</v>
       </c>
       <c r="D94">
-        <v>0.04727090703937745</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04862145396564777</v>
+      </c>
+      <c r="E94">
+        <v>-0.0585095049718634</v>
+      </c>
+      <c r="F94">
+        <v>-0.06249270580070552</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1263786710545284</v>
+        <v>-0.1286788496230617</v>
       </c>
       <c r="C95">
-        <v>0.01288886162059341</v>
+        <v>0.007771953334059332</v>
       </c>
       <c r="D95">
-        <v>0.1071690400124121</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1149949902841253</v>
+      </c>
+      <c r="E95">
+        <v>-0.01432121960868129</v>
+      </c>
+      <c r="F95">
+        <v>-0.03562062915678116</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1635217216121635</v>
+        <v>-0.1471244199339932</v>
       </c>
       <c r="C96">
-        <v>-0.9809562044957429</v>
+        <v>-0.9827275371637181</v>
       </c>
       <c r="D96">
-        <v>-0.02865965290691599</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.04916165199755566</v>
+      </c>
+      <c r="E96">
+        <v>-0.0648321541862794</v>
+      </c>
+      <c r="F96">
+        <v>-0.01031907184685088</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1940328969329047</v>
+        <v>-0.1956531829618</v>
       </c>
       <c r="C97">
-        <v>0.005283055736746077</v>
+        <v>0.0008390317120657377</v>
       </c>
       <c r="D97">
-        <v>-0.02188423208054906</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.01830820104417595</v>
+      </c>
+      <c r="E97">
+        <v>0.1334824676882307</v>
+      </c>
+      <c r="F97">
+        <v>-0.1034048339172503</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1933365680510175</v>
+        <v>-0.2004143032454421</v>
       </c>
       <c r="C98">
-        <v>0.01783327703457612</v>
+        <v>0.01283461274416029</v>
       </c>
       <c r="D98">
-        <v>0.001385795347429053</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.006261719044116689</v>
+      </c>
+      <c r="E98">
+        <v>0.1335626663084095</v>
+      </c>
+      <c r="F98">
+        <v>0.05740193211333047</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05774308728818541</v>
+        <v>-0.05724872170279336</v>
       </c>
       <c r="C99">
-        <v>-0.0003723959216540436</v>
+        <v>-0.002419278119765046</v>
       </c>
       <c r="D99">
-        <v>0.05323360190518964</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.05467874910685073</v>
+      </c>
+      <c r="E99">
+        <v>-0.002234456842785223</v>
+      </c>
+      <c r="F99">
+        <v>-0.004223933233145736</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1235100679177574</v>
+        <v>-0.1165287931170107</v>
       </c>
       <c r="C100">
-        <v>-0.03263278992636184</v>
+        <v>-0.0391121494950457</v>
       </c>
       <c r="D100">
-        <v>0.3031551011513554</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.2875141616448716</v>
+      </c>
+      <c r="E100">
+        <v>0.5745865043129806</v>
+      </c>
+      <c r="F100">
+        <v>0.6661379178500624</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02559178080092881</v>
+        <v>-0.02774234722087333</v>
       </c>
       <c r="C101">
-        <v>0.009715593435978663</v>
+        <v>0.009270839167582329</v>
       </c>
       <c r="D101">
-        <v>0.03901002955924427</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03792601483675179</v>
+      </c>
+      <c r="E101">
+        <v>0.004985569487752742</v>
+      </c>
+      <c r="F101">
+        <v>-0.02246206883191602</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
